--- a/OnBoard/output/trust/bio/Bio_Trust_75.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_75.xlsx
@@ -15915,12 +15915,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F306">
@@ -15930,23 +15930,23 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="I306">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L306">
         <v>0</v>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>NA w inferred l inferred</t>
-        </is>
       </c>
     </row>
     <row r="307">
@@ -15982,19 +15982,14 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I307">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L307">
@@ -16034,10 +16029,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -16081,14 +16076,19 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L309">
@@ -16128,10 +16128,10 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I310">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -16140,11 +16140,16 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L310">
         <v>0</v>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>NA w inferred l inferred</t>
+        </is>
       </c>
     </row>
     <row r="311">
